--- a/docs/DataModel.xlsx
+++ b/docs/DataModel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NeedBackUp\school\4年\地位共生ソリューション開発Ⅱ\Projects\basic-design-document\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80D98F4F-98E0-498D-94A2-B61652D90B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F45A0D-60B3-46C7-8EBA-F4949552BD62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{DC6C593F-4D53-488B-8DF7-C5210E0EC69D}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="18105" xr2:uid="{DC6C593F-4D53-488B-8DF7-C5210E0EC69D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="52">
   <si>
     <t>レシピ</t>
     <phoneticPr fontId="1"/>
@@ -315,6 +315,10 @@
   </si>
   <si>
     <t>エッジコンピュータ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カロリー</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -323,7 +327,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -435,7 +439,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -445,61 +449,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -836,524 +816,531 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9E15494-C207-47AD-8E9D-B13944A0A3F6}">
-  <dimension ref="A1:AA21"/>
+  <dimension ref="A1:AB21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="9" style="8"/>
-    <col min="4" max="4" width="10" style="10" customWidth="1"/>
-    <col min="5" max="5" width="25" customWidth="1"/>
-    <col min="8" max="9" width="9" style="18"/>
-    <col min="10" max="10" width="10.25" style="11" customWidth="1"/>
-    <col min="13" max="13" width="9.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.75" style="8" customWidth="1"/>
-    <col min="17" max="17" width="9" style="4"/>
-    <col min="19" max="19" width="13.25" customWidth="1"/>
-    <col min="24" max="24" width="15" customWidth="1"/>
+    <col min="3" max="3" width="9" style="5"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="6" max="6" width="25" customWidth="1"/>
+    <col min="9" max="10" width="9" style="10"/>
+    <col min="11" max="11" width="10.25" style="6" customWidth="1"/>
+    <col min="14" max="14" width="9.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.75" style="5" customWidth="1"/>
+    <col min="18" max="18" width="9" style="3"/>
+    <col min="20" max="20" width="13.25" customWidth="1"/>
+    <col min="25" max="25" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="11"/>
-      <c r="M1" s="12"/>
-      <c r="Q1" s="13"/>
-      <c r="S1" s="10" t="s">
+      <c r="C1"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="Q1"/>
+      <c r="T1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="10" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="11"/>
-      <c r="M2" s="12"/>
-      <c r="O2" s="10" t="s">
+      <c r="C2"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="P2" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="13"/>
-      <c r="S2" s="10" t="s">
+      <c r="Q2"/>
+      <c r="T2" t="s">
         <v>34</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>35</v>
       </c>
-      <c r="Y2"/>
-      <c r="Z2"/>
-      <c r="AA2"/>
-    </row>
-    <row r="3" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C3" s="8" t="s">
+    </row>
+    <row r="3" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="I3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="K3" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="L3" s="6"/>
-      <c r="M3"/>
-      <c r="S3" t="s">
+      <c r="M3" s="4"/>
+      <c r="N3"/>
+      <c r="T3" t="s">
         <v>37</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>38</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>39</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>40</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>50</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>38</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>39</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="J4" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="K4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" t="s">
         <v>21</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="Q4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="R4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="C5" s="8">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="C5" s="5">
         <v>0</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5">
+        <v>325</v>
+      </c>
+      <c r="F5" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="18">
+      <c r="I5" s="10">
         <v>0</v>
       </c>
-      <c r="I5" s="21">
+      <c r="J5" s="5">
         <v>0</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="K5" t="s">
         <v>4</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="6">
-        <v>1</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="M5" s="4">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
         <v>22</v>
       </c>
-      <c r="P5" s="8" t="s">
+      <c r="Q5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="C6" s="8">
-        <v>1</v>
-      </c>
-      <c r="D6" s="10" t="s">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
         <v>9</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6">
+        <v>330</v>
+      </c>
+      <c r="F6" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="21">
+      <c r="I6" s="5">
         <v>0</v>
       </c>
-      <c r="I6" s="21">
-        <v>1</v>
-      </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="5">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
         <v>4</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>6</v>
       </c>
-      <c r="L6" s="6">
+      <c r="M6" s="4">
         <v>250</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>24</v>
       </c>
-      <c r="P6" s="8" t="s">
+      <c r="Q6" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="C7" s="8">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="C7" s="5">
         <v>2</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="21">
+      <c r="I7" s="5">
         <v>0</v>
       </c>
-      <c r="I7" s="21">
+      <c r="J7" s="5">
         <v>2</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="K7" t="s">
         <v>4</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="6">
+      <c r="M7" s="4">
         <v>10</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>23</v>
       </c>
-      <c r="P7" s="8" t="s">
+      <c r="Q7" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="H8" s="21">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="I8" s="5">
         <v>0</v>
       </c>
-      <c r="I8" s="21">
+      <c r="J8" s="5">
         <v>3</v>
       </c>
-      <c r="J8" s="10" t="s">
+      <c r="K8" t="s">
         <v>4</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>8</v>
       </c>
-      <c r="L8" s="6">
+      <c r="M8" s="4">
         <v>2</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="H9" s="21">
-        <v>1</v>
-      </c>
-      <c r="I9" s="21">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="I9" s="5">
+        <v>1</v>
+      </c>
+      <c r="J9" s="5">
         <v>0</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="K9" t="s">
         <v>9</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>10</v>
       </c>
-      <c r="L9" s="6">
+      <c r="M9" s="4">
         <v>100</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="H10" s="21">
-        <v>1</v>
-      </c>
-      <c r="I10" s="21">
-        <v>1</v>
-      </c>
-      <c r="J10" s="10" t="s">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="I10" s="5">
+        <v>1</v>
+      </c>
+      <c r="J10" s="5">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
         <v>9</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>11</v>
       </c>
-      <c r="L10" s="6">
+      <c r="M10" s="4">
         <v>2</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="H11" s="21">
-        <v>1</v>
-      </c>
-      <c r="I11" s="21">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="I11" s="5">
+        <v>1</v>
+      </c>
+      <c r="J11" s="5">
         <v>2</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="K11" t="s">
         <v>9</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>12</v>
       </c>
-      <c r="L11" s="6">
+      <c r="M11" s="4">
         <v>0.25</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="H12" s="21">
-        <v>1</v>
-      </c>
-      <c r="I12" s="21">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="I12" s="5">
+        <v>1</v>
+      </c>
+      <c r="J12" s="5">
         <v>3</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="K12" t="s">
         <v>9</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>13</v>
       </c>
-      <c r="L12" s="6">
+      <c r="M12" s="4">
         <v>0.25</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="H13" s="21">
-        <v>1</v>
-      </c>
-      <c r="I13" s="21">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="I13" s="5">
+        <v>1</v>
+      </c>
+      <c r="J13" s="5">
         <v>4</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="K13" t="s">
         <v>9</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>14</v>
       </c>
-      <c r="L13" s="6">
+      <c r="M13" s="4">
         <v>0.25</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="H14" s="21">
-        <v>1</v>
-      </c>
-      <c r="I14" s="21">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="I14" s="5">
+        <v>1</v>
+      </c>
+      <c r="J14" s="5">
         <v>5</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="K14" t="s">
         <v>9</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>7</v>
       </c>
-      <c r="L14" s="6">
+      <c r="M14" s="4">
         <v>15</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="H15" s="21">
-        <v>1</v>
-      </c>
-      <c r="I15" s="21">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="I15" s="5">
+        <v>1</v>
+      </c>
+      <c r="J15" s="5">
         <v>6</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="K15" t="s">
         <v>9</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>15</v>
       </c>
-      <c r="L15" s="6">
+      <c r="M15" s="4">
         <v>15</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
-      <c r="H16" s="21">
-        <v>1</v>
-      </c>
-      <c r="I16" s="21">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="I16" s="5">
+        <v>1</v>
+      </c>
+      <c r="J16" s="5">
         <v>7</v>
       </c>
-      <c r="J16" s="10" t="s">
+      <c r="K16" t="s">
         <v>9</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>16</v>
       </c>
-      <c r="L16" s="6">
+      <c r="M16" s="4">
         <v>15</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="8:13" x14ac:dyDescent="0.4">
-      <c r="H17" s="21">
-        <v>1</v>
-      </c>
-      <c r="I17" s="21">
+    <row r="17" spans="9:14" x14ac:dyDescent="0.4">
+      <c r="I17" s="5">
+        <v>1</v>
+      </c>
+      <c r="J17" s="5">
         <v>8</v>
       </c>
-      <c r="J17" s="10" t="s">
+      <c r="K17" t="s">
         <v>9</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>17</v>
       </c>
-      <c r="L17" s="6">
+      <c r="M17" s="4">
         <v>15</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="8:13" x14ac:dyDescent="0.4">
-      <c r="H18" s="21">
-        <v>1</v>
-      </c>
-      <c r="I18" s="21">
+    <row r="18" spans="9:14" x14ac:dyDescent="0.4">
+      <c r="I18" s="5">
+        <v>1</v>
+      </c>
+      <c r="J18" s="5">
         <v>9</v>
       </c>
-      <c r="J18" s="10" t="s">
+      <c r="K18" t="s">
         <v>9</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>18</v>
       </c>
-      <c r="L18" s="6">
+      <c r="M18" s="4">
         <v>5</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="8:13" x14ac:dyDescent="0.4">
-      <c r="H19" s="21">
+    <row r="19" spans="9:14" x14ac:dyDescent="0.4">
+      <c r="I19" s="5">
         <v>2</v>
       </c>
-      <c r="I19" s="21">
+      <c r="J19" s="5">
         <v>0</v>
       </c>
-      <c r="J19" s="10" t="s">
+      <c r="K19" t="s">
         <v>25</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>26</v>
       </c>
-      <c r="L19" s="6">
+      <c r="M19" s="4">
         <v>0.25</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="8:13" x14ac:dyDescent="0.4">
-      <c r="H20" s="21">
+    <row r="20" spans="9:14" x14ac:dyDescent="0.4">
+      <c r="I20" s="5">
         <v>2</v>
       </c>
-      <c r="I20" s="21">
-        <v>1</v>
-      </c>
-      <c r="J20" s="10" t="s">
+      <c r="J20" s="5">
+        <v>1</v>
+      </c>
+      <c r="K20" t="s">
         <v>25</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>27</v>
       </c>
-      <c r="L20" s="6">
-        <v>1</v>
-      </c>
-      <c r="M20" t="s">
+      <c r="M20" s="4">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="8:13" x14ac:dyDescent="0.4">
-      <c r="H21" s="21">
+    <row r="21" spans="9:14" x14ac:dyDescent="0.4">
+      <c r="I21" s="5">
         <v>2</v>
       </c>
-      <c r="I21" s="21">
+      <c r="J21" s="5">
         <v>2</v>
       </c>
-      <c r="J21" s="10" t="s">
+      <c r="K21" t="s">
         <v>25</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>28</v>
       </c>
-      <c r="L21" s="6">
+      <c r="M21" s="4">
         <v>30</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
         <v>23</v>
       </c>
     </row>

--- a/docs/DataModel.xlsx
+++ b/docs/DataModel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NeedBackUp\school\4年\地位共生ソリューション開発Ⅱ\Projects\basic-design-document\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F45A0D-60B3-46C7-8EBA-F4949552BD62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B264016-B16F-4732-8F0A-1B03B0A766A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="18105" xr2:uid="{DC6C593F-4D53-488B-8DF7-C5210E0EC69D}"/>
+    <workbookView xWindow="5055" yWindow="3360" windowWidth="21600" windowHeight="13125" xr2:uid="{DC6C593F-4D53-488B-8DF7-C5210E0EC69D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -439,7 +439,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -477,9 +477,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -819,7 +816,7 @@
   <dimension ref="A1:AB21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -916,7 +913,7 @@
       <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" t="s">
         <v>51</v>
       </c>
       <c r="F4" t="s">

--- a/docs/DataModel.xlsx
+++ b/docs/DataModel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NeedBackUp\school\4年\地位共生ソリューション開発Ⅱ\Projects\basic-design-document\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B264016-B16F-4732-8F0A-1B03B0A766A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99CF2BD-6C58-446C-A2A2-DC93CA6E9A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5055" yWindow="3360" windowWidth="21600" windowHeight="13125" xr2:uid="{DC6C593F-4D53-488B-8DF7-C5210E0EC69D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="56">
   <si>
     <t>レシピ</t>
     <phoneticPr fontId="1"/>
@@ -319,6 +319,25 @@
   </si>
   <si>
     <t>カロリー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>写真</t>
+    <rPh sb="0" eb="2">
+      <t>シャシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rice_egg.png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>meet_potato/png</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>salad/ping</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -813,97 +832,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9E15494-C207-47AD-8E9D-B13944A0A3F6}">
-  <dimension ref="A1:AB21"/>
+  <dimension ref="A1:AC21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="9" style="5"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="6" max="6" width="25" customWidth="1"/>
-    <col min="9" max="10" width="9" style="10"/>
-    <col min="11" max="11" width="10.25" style="6" customWidth="1"/>
-    <col min="14" max="14" width="9.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.75" style="5" customWidth="1"/>
-    <col min="18" max="18" width="9" style="3"/>
-    <col min="20" max="20" width="13.25" customWidth="1"/>
-    <col min="25" max="25" width="15" customWidth="1"/>
+    <col min="7" max="7" width="25" customWidth="1"/>
+    <col min="10" max="11" width="9" style="10"/>
+    <col min="12" max="12" width="10.25" style="6" customWidth="1"/>
+    <col min="15" max="15" width="9.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.75" style="5" customWidth="1"/>
+    <col min="19" max="19" width="9" style="3"/>
+    <col min="21" max="21" width="13.25" customWidth="1"/>
+    <col min="26" max="26" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>33</v>
       </c>
       <c r="C1"/>
-      <c r="I1" s="9"/>
       <c r="J1" s="9"/>
-      <c r="Q1"/>
-      <c r="T1" t="s">
+      <c r="K1" s="9"/>
+      <c r="R1"/>
+      <c r="U1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>34</v>
       </c>
       <c r="C2"/>
-      <c r="I2" s="9"/>
       <c r="J2" s="9"/>
-      <c r="P2" t="s">
+      <c r="K2" s="9"/>
+      <c r="Q2" t="s">
         <v>35</v>
       </c>
-      <c r="Q2"/>
-      <c r="T2" t="s">
+      <c r="R2"/>
+      <c r="U2" t="s">
         <v>34</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C3" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D3" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="J3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="L3" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="M3" s="4"/>
-      <c r="N3"/>
-      <c r="T3" t="s">
+      <c r="N3" s="4"/>
+      <c r="O3"/>
+      <c r="U3" t="s">
         <v>37</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>38</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>39</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>40</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>50</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>38</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>39</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:29" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -917,43 +936,46 @@
         <v>51</v>
       </c>
       <c r="F4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="K4" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="L4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>21</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="R4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.4">
       <c r="C5" s="5">
         <v>0</v>
       </c>
@@ -964,34 +986,37 @@
         <v>325</v>
       </c>
       <c r="F5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" t="s">
         <v>47</v>
       </c>
-      <c r="I5" s="10">
+      <c r="J5" s="10">
         <v>0</v>
       </c>
-      <c r="J5" s="5">
+      <c r="K5" s="5">
         <v>0</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>4</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="4">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="N5" s="4">
+        <v>1</v>
+      </c>
+      <c r="O5" t="s">
         <v>22</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="R5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.4">
       <c r="C6" s="5">
         <v>1</v>
       </c>
@@ -1002,31 +1027,34 @@
         <v>330</v>
       </c>
       <c r="F6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="5">
+      <c r="J6" s="5">
         <v>0</v>
       </c>
-      <c r="J6" s="5">
-        <v>1</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="K6" s="5">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
         <v>4</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>6</v>
       </c>
-      <c r="M6" s="4">
+      <c r="N6" s="4">
         <v>250</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>24</v>
       </c>
-      <c r="Q6" s="5" t="s">
+      <c r="R6" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.4">
       <c r="C7" s="5">
         <v>2</v>
       </c>
@@ -1037,307 +1065,310 @@
         <v>30</v>
       </c>
       <c r="F7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="5">
+      <c r="J7" s="5">
         <v>0</v>
       </c>
-      <c r="J7" s="5">
+      <c r="K7" s="5">
         <v>2</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>4</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="4">
+      <c r="N7" s="4">
         <v>10</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>23</v>
       </c>
-      <c r="Q7" s="5" t="s">
+      <c r="R7" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="I8" s="5">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.4">
+      <c r="J8" s="5">
         <v>0</v>
       </c>
-      <c r="J8" s="5">
+      <c r="K8" s="5">
         <v>3</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>4</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="4">
+      <c r="N8" s="4">
         <v>2</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="I9" s="5">
-        <v>1</v>
-      </c>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.4">
       <c r="J9" s="5">
+        <v>1</v>
+      </c>
+      <c r="K9" s="5">
         <v>0</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>9</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>10</v>
       </c>
-      <c r="M9" s="4">
+      <c r="N9" s="4">
         <v>100</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="I10" s="5">
-        <v>1</v>
-      </c>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.4">
       <c r="J10" s="5">
         <v>1</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="5">
+        <v>1</v>
+      </c>
+      <c r="L10" t="s">
         <v>9</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>11</v>
       </c>
-      <c r="M10" s="4">
+      <c r="N10" s="4">
         <v>2</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="I11" s="5">
-        <v>1</v>
-      </c>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.4">
       <c r="J11" s="5">
+        <v>1</v>
+      </c>
+      <c r="K11" s="5">
         <v>2</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>9</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>12</v>
       </c>
-      <c r="M11" s="4">
+      <c r="N11" s="4">
         <v>0.25</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="I12" s="5">
-        <v>1</v>
-      </c>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.4">
       <c r="J12" s="5">
+        <v>1</v>
+      </c>
+      <c r="K12" s="5">
         <v>3</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>9</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>13</v>
       </c>
-      <c r="M12" s="4">
+      <c r="N12" s="4">
         <v>0.25</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="I13" s="5">
-        <v>1</v>
-      </c>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.4">
       <c r="J13" s="5">
+        <v>1</v>
+      </c>
+      <c r="K13" s="5">
         <v>4</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>9</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>14</v>
       </c>
-      <c r="M13" s="4">
+      <c r="N13" s="4">
         <v>0.25</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="I14" s="5">
-        <v>1</v>
-      </c>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.4">
       <c r="J14" s="5">
+        <v>1</v>
+      </c>
+      <c r="K14" s="5">
         <v>5</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>9</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>7</v>
       </c>
-      <c r="M14" s="4">
+      <c r="N14" s="4">
         <v>15</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="I15" s="5">
-        <v>1</v>
-      </c>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.4">
       <c r="J15" s="5">
+        <v>1</v>
+      </c>
+      <c r="K15" s="5">
         <v>6</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>9</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>15</v>
       </c>
-      <c r="M15" s="4">
+      <c r="N15" s="4">
         <v>15</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="I16" s="5">
-        <v>1</v>
-      </c>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.4">
       <c r="J16" s="5">
+        <v>1</v>
+      </c>
+      <c r="K16" s="5">
         <v>7</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>9</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>16</v>
       </c>
-      <c r="M16" s="4">
+      <c r="N16" s="4">
         <v>15</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="9:14" x14ac:dyDescent="0.4">
-      <c r="I17" s="5">
-        <v>1</v>
-      </c>
+    <row r="17" spans="10:15" x14ac:dyDescent="0.4">
       <c r="J17" s="5">
+        <v>1</v>
+      </c>
+      <c r="K17" s="5">
         <v>8</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>9</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="s">
         <v>17</v>
       </c>
-      <c r="M17" s="4">
+      <c r="N17" s="4">
         <v>15</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="9:14" x14ac:dyDescent="0.4">
-      <c r="I18" s="5">
-        <v>1</v>
-      </c>
+    <row r="18" spans="10:15" x14ac:dyDescent="0.4">
       <c r="J18" s="5">
+        <v>1</v>
+      </c>
+      <c r="K18" s="5">
         <v>9</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>9</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>18</v>
       </c>
-      <c r="M18" s="4">
+      <c r="N18" s="4">
         <v>5</v>
       </c>
-      <c r="N18" t="s">
+      <c r="O18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="9:14" x14ac:dyDescent="0.4">
-      <c r="I19" s="5">
+    <row r="19" spans="10:15" x14ac:dyDescent="0.4">
+      <c r="J19" s="5">
         <v>2</v>
       </c>
-      <c r="J19" s="5">
+      <c r="K19" s="5">
         <v>0</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>25</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>26</v>
       </c>
-      <c r="M19" s="4">
+      <c r="N19" s="4">
         <v>0.25</v>
       </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="9:14" x14ac:dyDescent="0.4">
-      <c r="I20" s="5">
+    <row r="20" spans="10:15" x14ac:dyDescent="0.4">
+      <c r="J20" s="5">
         <v>2</v>
       </c>
-      <c r="J20" s="5">
-        <v>1</v>
-      </c>
-      <c r="K20" t="s">
+      <c r="K20" s="5">
+        <v>1</v>
+      </c>
+      <c r="L20" t="s">
         <v>25</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>27</v>
       </c>
-      <c r="M20" s="4">
-        <v>1</v>
-      </c>
-      <c r="N20" t="s">
+      <c r="N20" s="4">
+        <v>1</v>
+      </c>
+      <c r="O20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="9:14" x14ac:dyDescent="0.4">
-      <c r="I21" s="5">
-        <v>2</v>
-      </c>
+    <row r="21" spans="10:15" x14ac:dyDescent="0.4">
       <c r="J21" s="5">
         <v>2</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" s="5">
+        <v>2</v>
+      </c>
+      <c r="L21" t="s">
         <v>25</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>28</v>
       </c>
-      <c r="M21" s="4">
+      <c r="N21" s="4">
         <v>30</v>
       </c>
-      <c r="N21" t="s">
+      <c r="O21" t="s">
         <v>23</v>
       </c>
     </row>
